--- a/lowe/edd/data/OAK$HWS.xlsx
+++ b/lowe/edd/data/OAK$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1709,14 +1709,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH107"/>
+  <dimension ref="A1:JI107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1726,12 +1726,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1759,12 +1759,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2579,11 +2579,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3384,10 +3387,13 @@
         <v>1353000</v>
       </c>
       <c r="JH9" s="11">
-        <v>1345600</v>
+        <v>1344400</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>1342700</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4188,10 +4194,13 @@
         <v>1264100</v>
       </c>
       <c r="JH10" s="11">
-        <v>1260600</v>
+        <v>1259200</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>1270600</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4992,10 +5001,13 @@
         <v>89000</v>
       </c>
       <c r="JH11" s="11">
-        <v>85000</v>
+        <v>85200</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>72100</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5798,8 +5810,11 @@
       <c r="JH12" s="12">
         <v>6.3E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6600,10 +6615,13 @@
         <v>1094100</v>
       </c>
       <c r="JH13" s="11">
-        <v>1101400</v>
+        <v>1099500</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>1100200</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7406,8 +7424,11 @@
       <c r="JH14" s="11">
         <v>1900</v>
       </c>
+      <c r="JI14" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8208,10 +8229,13 @@
         <v>1092200</v>
       </c>
       <c r="JH15" s="11">
-        <v>1099500</v>
+        <v>1097600</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>1098400</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9012,10 +9036,13 @@
         <v>943200</v>
       </c>
       <c r="JH16" s="11">
-        <v>946200</v>
+        <v>947100</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>943300</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9816,10 +9843,13 @@
         <v>173100</v>
       </c>
       <c r="JH17" s="11">
-        <v>172600</v>
+        <v>173000</v>
+      </c>
+      <c r="JI17" s="11">
+        <v>172500</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10620,10 +10650,13 @@
         <v>72900</v>
       </c>
       <c r="JH18" s="11">
-        <v>73600</v>
+        <v>74200</v>
+      </c>
+      <c r="JI18" s="11">
+        <v>74300</v>
       </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11426,8 +11459,11 @@
       <c r="JH19" s="11">
         <v>200</v>
       </c>
+      <c r="JI19" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12228,10 +12264,13 @@
         <v>72700</v>
       </c>
       <c r="JH20" s="11">
-        <v>73400</v>
+        <v>74000</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>74100</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13034,8 +13073,11 @@
       <c r="JH21" s="11">
         <v>16100</v>
       </c>
+      <c r="JI21" s="11">
+        <v>15900</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13838,8 +13880,11 @@
       <c r="JH22" s="11">
         <v>10900</v>
       </c>
+      <c r="JI22" s="11">
+        <v>10800</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14642,8 +14687,11 @@
       <c r="JH23" s="11">
         <v>5200</v>
       </c>
+      <c r="JI23" s="11">
+        <v>5100</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15444,10 +15492,13 @@
         <v>7500</v>
       </c>
       <c r="JH24" s="11">
+        <v>7500</v>
+      </c>
+      <c r="JI24" s="11">
         <v>7400</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16248,10 +16299,13 @@
         <v>49100</v>
       </c>
       <c r="JH25" s="11">
-        <v>49900</v>
+        <v>50400</v>
+      </c>
+      <c r="JI25" s="11">
+        <v>50800</v>
       </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -17054,8 +17108,11 @@
       <c r="JH26" s="11">
         <v>9600</v>
       </c>
+      <c r="JI26" s="11">
+        <v>9500</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -17856,10 +17913,13 @@
         <v>23400</v>
       </c>
       <c r="JH27" s="11">
-        <v>23600</v>
+        <v>23500</v>
+      </c>
+      <c r="JI27" s="11">
+        <v>23400</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18660,10 +18720,13 @@
         <v>100200</v>
       </c>
       <c r="JH28" s="11">
-        <v>99000</v>
+        <v>98800</v>
+      </c>
+      <c r="JI28" s="11">
+        <v>98200</v>
       </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19464,10 +19527,13 @@
         <v>70400</v>
       </c>
       <c r="JH29" s="11">
-        <v>69000</v>
+        <v>68800</v>
+      </c>
+      <c r="JI29" s="11">
+        <v>68100</v>
       </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -20270,8 +20336,11 @@
       <c r="JH30" s="11">
         <v>20700</v>
       </c>
+      <c r="JI30" s="11">
+        <v>20600</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -21074,8 +21143,11 @@
       <c r="JH31" s="11">
         <v>30000</v>
       </c>
+      <c r="JI31" s="11">
+        <v>30100</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>34</v>
       </c>
@@ -21876,10 +21948,13 @@
         <v>919100</v>
       </c>
       <c r="JH32" s="11">
-        <v>926900</v>
+        <v>924600</v>
+      </c>
+      <c r="JI32" s="11">
+        <v>925900</v>
       </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>35</v>
       </c>
@@ -22680,10 +22755,13 @@
         <v>770100</v>
       </c>
       <c r="JH33" s="11">
-        <v>773600</v>
+        <v>774100</v>
+      </c>
+      <c r="JI33" s="11">
+        <v>770800</v>
       </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>36</v>
       </c>
@@ -23486,8 +23564,11 @@
       <c r="JH34" s="11">
         <v>186700</v>
       </c>
+      <c r="JI34" s="11">
+        <v>184200</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>37</v>
       </c>
@@ -24290,8 +24371,11 @@
       <c r="JH35" s="11">
         <v>40600</v>
       </c>
+      <c r="JI35" s="11">
+        <v>40000</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>38</v>
       </c>
@@ -25094,8 +25178,11 @@
       <c r="JH36" s="11">
         <v>21400</v>
       </c>
+      <c r="JI36" s="11">
+        <v>21200</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -25898,8 +25985,11 @@
       <c r="JH37" s="11">
         <v>16800</v>
       </c>
+      <c r="JI37" s="11">
+        <v>16700</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>42</v>
       </c>
@@ -26700,10 +26790,13 @@
         <v>99700</v>
       </c>
       <c r="JH38" s="11">
-        <v>98400</v>
+        <v>98500</v>
+      </c>
+      <c r="JI38" s="11">
+        <v>97500</v>
       </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>43</v>
       </c>
@@ -27504,10 +27597,13 @@
         <v>11600</v>
       </c>
       <c r="JH39" s="11">
-        <v>11400</v>
+        <v>11500</v>
+      </c>
+      <c r="JI39" s="11">
+        <v>11500</v>
       </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44</v>
       </c>
@@ -28308,10 +28404,13 @@
         <v>25300</v>
       </c>
       <c r="JH40" s="11">
-        <v>25100</v>
+        <v>25200</v>
+      </c>
+      <c r="JI40" s="11">
+        <v>24900</v>
       </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>47</v>
       </c>
@@ -29114,8 +29213,11 @@
       <c r="JH41" s="11">
         <v>6200</v>
       </c>
+      <c r="JI41" s="11">
+        <v>6200</v>
+      </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>48</v>
       </c>
@@ -29918,8 +30020,11 @@
       <c r="JH42" s="11">
         <v>9700</v>
       </c>
+      <c r="JI42" s="11">
+        <v>9600</v>
+      </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>49</v>
       </c>
@@ -30722,8 +30827,11 @@
       <c r="JH43" s="11">
         <v>3500</v>
       </c>
+      <c r="JI43" s="11">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>50</v>
       </c>
@@ -31526,8 +31634,11 @@
       <c r="JH44" s="11">
         <v>17300</v>
       </c>
+      <c r="JI44" s="11">
+        <v>17400</v>
+      </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>53</v>
       </c>
@@ -32328,10 +32439,13 @@
         <v>46800</v>
       </c>
       <c r="JH45" s="11">
-        <v>47700</v>
+        <v>47600</v>
+      </c>
+      <c r="JI45" s="11">
+        <v>46700</v>
       </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>55</v>
       </c>
@@ -33132,10 +33246,13 @@
         <v>40800</v>
       </c>
       <c r="JH46" s="11">
-        <v>41600</v>
+        <v>41500</v>
+      </c>
+      <c r="JI46" s="11">
+        <v>40800</v>
       </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>57</v>
       </c>
@@ -33938,8 +34055,11 @@
       <c r="JH47" s="11">
         <v>9200</v>
       </c>
+      <c r="JI47" s="11">
+        <v>9100</v>
+      </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>58</v>
       </c>
@@ -34742,8 +34862,11 @@
       <c r="JH48" s="11">
         <v>11400</v>
       </c>
+      <c r="JI48" s="11">
+        <v>11300</v>
+      </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>59</v>
       </c>
@@ -35546,8 +35669,11 @@
       <c r="JH49" s="11">
         <v>8600</v>
       </c>
+      <c r="JI49" s="11">
+        <v>8500</v>
+      </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>62</v>
       </c>
@@ -36350,8 +36476,11 @@
       <c r="JH50" s="11">
         <v>25300</v>
       </c>
+      <c r="JI50" s="11">
+        <v>25400</v>
+      </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>63</v>
       </c>
@@ -37154,8 +37283,11 @@
       <c r="JH51" s="11">
         <v>7500</v>
       </c>
+      <c r="JI51" s="11">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>66</v>
       </c>
@@ -37958,8 +38090,11 @@
       <c r="JH52" s="11">
         <v>4200</v>
       </c>
+      <c r="JI52" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>68</v>
       </c>
@@ -38760,10 +38895,13 @@
         <v>51500</v>
       </c>
       <c r="JH53" s="11">
-        <v>51200</v>
+        <v>51500</v>
+      </c>
+      <c r="JI53" s="11">
+        <v>51000</v>
       </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>69</v>
       </c>
@@ -39564,10 +39702,13 @@
         <v>34800</v>
       </c>
       <c r="JH54" s="11">
-        <v>34700</v>
+        <v>34800</v>
+      </c>
+      <c r="JI54" s="11">
+        <v>34500</v>
       </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>70</v>
       </c>
@@ -40368,10 +40509,13 @@
         <v>15000</v>
       </c>
       <c r="JH55" s="11">
-        <v>15100</v>
+        <v>15000</v>
+      </c>
+      <c r="JI55" s="11">
+        <v>14900</v>
       </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>72</v>
       </c>
@@ -41172,10 +41316,13 @@
         <v>15700</v>
       </c>
       <c r="JH56" s="11">
-        <v>15700</v>
+        <v>15600</v>
+      </c>
+      <c r="JI56" s="11">
+        <v>15600</v>
       </c>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>73</v>
       </c>
@@ -41976,10 +42123,13 @@
         <v>16700</v>
       </c>
       <c r="JH57" s="11">
+        <v>16700</v>
+      </c>
+      <c r="JI57" s="11">
         <v>16500</v>
       </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>74</v>
       </c>
@@ -42782,8 +42932,11 @@
       <c r="JH58" s="11">
         <v>13400</v>
       </c>
+      <c r="JI58" s="11">
+        <v>13300</v>
+      </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>76</v>
       </c>
@@ -43584,10 +43737,13 @@
         <v>190200</v>
       </c>
       <c r="JH59" s="11">
-        <v>194000</v>
+        <v>193200</v>
+      </c>
+      <c r="JI59" s="11">
+        <v>194900</v>
       </c>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>77</v>
       </c>
@@ -44388,10 +44544,13 @@
         <v>104300</v>
       </c>
       <c r="JH60" s="11">
-        <v>106000</v>
+        <v>105800</v>
+      </c>
+      <c r="JI60" s="11">
+        <v>106200</v>
       </c>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>78</v>
       </c>
@@ -45192,10 +45351,13 @@
         <v>18200</v>
       </c>
       <c r="JH61" s="11">
-        <v>18800</v>
+        <v>18300</v>
+      </c>
+      <c r="JI61" s="11">
+        <v>18400</v>
       </c>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>79</v>
       </c>
@@ -45996,10 +46158,13 @@
         <v>23500</v>
       </c>
       <c r="JH62" s="11">
-        <v>23700</v>
+        <v>23600</v>
+      </c>
+      <c r="JI62" s="11">
+        <v>23600</v>
       </c>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>81</v>
       </c>
@@ -46800,10 +46965,13 @@
         <v>24000</v>
       </c>
       <c r="JH63" s="11">
-        <v>24100</v>
+        <v>24200</v>
+      </c>
+      <c r="JI63" s="11">
+        <v>24000</v>
       </c>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>82</v>
       </c>
@@ -47604,10 +47772,13 @@
         <v>61900</v>
       </c>
       <c r="JH64" s="11">
-        <v>63900</v>
+        <v>63200</v>
+      </c>
+      <c r="JI64" s="11">
+        <v>64700</v>
       </c>
     </row>
-    <row r="65" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>83</v>
       </c>
@@ -48408,10 +48579,13 @@
         <v>55300</v>
       </c>
       <c r="JH65" s="11">
-        <v>57200</v>
+        <v>56500</v>
+      </c>
+      <c r="JI65" s="11">
+        <v>57800</v>
       </c>
     </row>
-    <row r="66" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>84</v>
       </c>
@@ -49212,10 +49386,13 @@
         <v>21600</v>
       </c>
       <c r="JH66" s="11">
-        <v>22000</v>
+        <v>21900</v>
+      </c>
+      <c r="JI66" s="11">
+        <v>22400</v>
       </c>
     </row>
-    <row r="67" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>85</v>
       </c>
@@ -50016,10 +50193,13 @@
         <v>9200</v>
       </c>
       <c r="JH67" s="11">
-        <v>9400</v>
+        <v>9300</v>
+      </c>
+      <c r="JI67" s="11">
+        <v>9200</v>
       </c>
     </row>
-    <row r="68" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>86</v>
       </c>
@@ -50820,10 +51000,13 @@
         <v>16200</v>
       </c>
       <c r="JH68" s="11">
+        <v>16400</v>
+      </c>
+      <c r="JI68" s="11">
         <v>16600</v>
       </c>
     </row>
-    <row r="69" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -51624,10 +51807,13 @@
         <v>191400</v>
       </c>
       <c r="JH69" s="11">
-        <v>192500</v>
+        <v>193300</v>
+      </c>
+      <c r="JI69" s="11">
+        <v>192800</v>
       </c>
     </row>
-    <row r="70" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>91</v>
       </c>
@@ -52428,10 +52614,13 @@
         <v>18800</v>
       </c>
       <c r="JH70" s="11">
-        <v>18900</v>
+        <v>19100</v>
+      </c>
+      <c r="JI70" s="11">
+        <v>19900</v>
       </c>
     </row>
-    <row r="71" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>92</v>
       </c>
@@ -53232,10 +53421,13 @@
         <v>172600</v>
       </c>
       <c r="JH71" s="11">
-        <v>173600</v>
+        <v>174200</v>
+      </c>
+      <c r="JI71" s="11">
+        <v>172900</v>
       </c>
     </row>
-    <row r="72" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>93</v>
       </c>
@@ -54036,10 +54228,13 @@
         <v>69700</v>
       </c>
       <c r="JH72" s="11">
-        <v>69400</v>
+        <v>69700</v>
+      </c>
+      <c r="JI72" s="11">
+        <v>70000</v>
       </c>
     </row>
-    <row r="73" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>94</v>
       </c>
@@ -54842,8 +55037,11 @@
       <c r="JH73" s="11">
         <v>22600</v>
       </c>
+      <c r="JI73" s="11">
+        <v>22500</v>
+      </c>
     </row>
-    <row r="74" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>95</v>
       </c>
@@ -55644,10 +55842,13 @@
         <v>20300</v>
       </c>
       <c r="JH74" s="11">
-        <v>20100</v>
+        <v>20900</v>
+      </c>
+      <c r="JI74" s="11">
+        <v>20500</v>
       </c>
     </row>
-    <row r="75" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>96</v>
       </c>
@@ -56448,10 +56649,13 @@
         <v>59800</v>
       </c>
       <c r="JH75" s="11">
-        <v>61500</v>
+        <v>61000</v>
+      </c>
+      <c r="JI75" s="11">
+        <v>59900</v>
       </c>
     </row>
-    <row r="76" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>97</v>
       </c>
@@ -57254,8 +57458,11 @@
       <c r="JH76" s="11">
         <v>89000</v>
       </c>
+      <c r="JI76" s="11">
+        <v>88600</v>
+      </c>
     </row>
-    <row r="77" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>98</v>
       </c>
@@ -58056,10 +58263,13 @@
         <v>12600</v>
       </c>
       <c r="JH77" s="11">
-        <v>12000</v>
+        <v>12100</v>
+      </c>
+      <c r="JI77" s="11">
+        <v>11900</v>
       </c>
     </row>
-    <row r="78" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>99</v>
       </c>
@@ -58860,10 +59070,13 @@
         <v>76600</v>
       </c>
       <c r="JH78" s="11">
-        <v>77000</v>
+        <v>76900</v>
+      </c>
+      <c r="JI78" s="11">
+        <v>76700</v>
       </c>
     </row>
-    <row r="79" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>100</v>
       </c>
@@ -59664,10 +59877,13 @@
         <v>6300</v>
       </c>
       <c r="JH79" s="11">
-        <v>6700</v>
+        <v>6400</v>
+      </c>
+      <c r="JI79" s="11">
+        <v>6300</v>
       </c>
     </row>
-    <row r="80" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>101</v>
       </c>
@@ -60468,10 +60684,13 @@
         <v>70300</v>
       </c>
       <c r="JH80" s="11">
-        <v>70300</v>
+        <v>70500</v>
+      </c>
+      <c r="JI80" s="11">
+        <v>70400</v>
       </c>
     </row>
-    <row r="81" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>102</v>
       </c>
@@ -61272,10 +61491,13 @@
         <v>35100</v>
       </c>
       <c r="JH81" s="11">
-        <v>34900</v>
+        <v>35100</v>
+      </c>
+      <c r="JI81" s="11">
+        <v>33900</v>
       </c>
     </row>
-    <row r="82" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>103</v>
       </c>
@@ -62078,8 +62300,11 @@
       <c r="JH82" s="11">
         <v>11000</v>
       </c>
+      <c r="JI82" s="11">
+        <v>10700</v>
+      </c>
     </row>
-    <row r="83" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>104</v>
       </c>
@@ -62880,10 +63105,13 @@
         <v>8800</v>
       </c>
       <c r="JH83" s="11">
-        <v>8800</v>
+        <v>8900</v>
+      </c>
+      <c r="JI83" s="11">
+        <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>105</v>
       </c>
@@ -63684,10 +63912,13 @@
         <v>15300</v>
       </c>
       <c r="JH84" s="11">
-        <v>15100</v>
+        <v>15200</v>
+      </c>
+      <c r="JI84" s="11">
+        <v>14500</v>
       </c>
     </row>
-    <row r="85" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>106</v>
       </c>
@@ -64488,10 +64719,13 @@
         <v>149000</v>
       </c>
       <c r="JH85" s="11">
-        <v>153300</v>
+        <v>150500</v>
+      </c>
+      <c r="JI85" s="11">
+        <v>155100</v>
       </c>
     </row>
-    <row r="86" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>107</v>
       </c>
@@ -65294,8 +65528,11 @@
       <c r="JH86" s="11">
         <v>13200</v>
       </c>
+      <c r="JI86" s="11">
+        <v>13100</v>
+      </c>
     </row>
-    <row r="87" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>108</v>
       </c>
@@ -66098,8 +66335,11 @@
       <c r="JH87" s="11">
         <v>400</v>
       </c>
+      <c r="JI87" s="11">
+        <v>400</v>
+      </c>
     </row>
-    <row r="88" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>109</v>
       </c>
@@ -66902,8 +67142,11 @@
       <c r="JH88" s="11">
         <v>12800</v>
       </c>
+      <c r="JI88" s="11">
+        <v>12700</v>
+      </c>
     </row>
-    <row r="89" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>110</v>
       </c>
@@ -67704,10 +67947,13 @@
         <v>135600</v>
       </c>
       <c r="JH89" s="11">
-        <v>140100</v>
+        <v>137300</v>
+      </c>
+      <c r="JI89" s="11">
+        <v>142000</v>
       </c>
     </row>
-    <row r="90" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>111</v>
       </c>
@@ -68508,10 +68754,13 @@
         <v>34700</v>
       </c>
       <c r="JH90" s="11">
-        <v>33500</v>
+        <v>33600</v>
+      </c>
+      <c r="JI90" s="11">
+        <v>35400</v>
       </c>
     </row>
-    <row r="91" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>112</v>
       </c>
@@ -69312,10 +69561,13 @@
         <v>22600</v>
       </c>
       <c r="JH91" s="11">
-        <v>21400</v>
+        <v>21600</v>
+      </c>
+      <c r="JI91" s="11">
+        <v>23600</v>
       </c>
     </row>
-    <row r="92" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>113</v>
       </c>
@@ -70116,10 +70368,13 @@
         <v>12100</v>
       </c>
       <c r="JH92" s="11">
-        <v>12100</v>
+        <v>12000</v>
+      </c>
+      <c r="JI92" s="11">
+        <v>11800</v>
       </c>
     </row>
-    <row r="93" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>114</v>
       </c>
@@ -70920,10 +71175,13 @@
         <v>100900</v>
       </c>
       <c r="JH93" s="11">
+        <v>103700</v>
+      </c>
+      <c r="JI93" s="11">
         <v>106600</v>
       </c>
     </row>
-    <row r="94" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>115</v>
       </c>
@@ -71724,10 +71982,13 @@
         <v>42500</v>
       </c>
       <c r="JH94" s="11">
-        <v>48300</v>
+        <v>45300</v>
+      </c>
+      <c r="JI94" s="11">
+        <v>49100</v>
       </c>
     </row>
-    <row r="95" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>116</v>
       </c>
@@ -72528,10 +72789,13 @@
         <v>58400</v>
       </c>
       <c r="JH95" s="11">
-        <v>58300</v>
+        <v>58400</v>
+      </c>
+      <c r="JI95" s="11">
+        <v>57500</v>
       </c>
     </row>
-    <row r="96" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>117</v>
       </c>
@@ -73332,10 +73596,13 @@
         <v>25500</v>
       </c>
       <c r="JH96" s="11">
+        <v>25500</v>
+      </c>
+      <c r="JI96" s="11">
         <v>25400</v>
       </c>
     </row>
-    <row r="97" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>118</v>
       </c>
@@ -74136,10 +74403,13 @@
         <v>16800</v>
       </c>
       <c r="JH97" s="11">
-        <v>16800</v>
+        <v>16700</v>
+      </c>
+      <c r="JI97" s="11">
+        <v>16100</v>
       </c>
     </row>
-    <row r="98" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>119</v>
       </c>
@@ -74940,10 +75210,13 @@
         <v>16100</v>
       </c>
       <c r="JH98" s="11">
-        <v>16100</v>
+        <v>16200</v>
+      </c>
+      <c r="JI98" s="11">
+        <v>16000</v>
       </c>
     </row>
-    <row r="100" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
         <v>222</v>
       </c>
@@ -74956,7 +75229,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="16"/>
     </row>
-    <row r="101" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>16</v>
       </c>
@@ -74969,7 +75242,7 @@
       <c r="H101" s="14"/>
       <c r="I101" s="18"/>
     </row>
-    <row r="102" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>223</v>
       </c>
@@ -74982,7 +75255,7 @@
       <c r="H102" s="14"/>
       <c r="I102" s="18"/>
     </row>
-    <row r="103" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>224</v>
       </c>
@@ -74995,7 +75268,7 @@
       <c r="H103" s="14"/>
       <c r="I103" s="18"/>
     </row>
-    <row r="104" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>225</v>
       </c>
@@ -75008,7 +75281,7 @@
       <c r="H104" s="14"/>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>226</v>
       </c>
@@ -75021,7 +75294,7 @@
       <c r="H105" s="14"/>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>227</v>
       </c>
@@ -75034,7 +75307,7 @@
       <c r="H106" s="14"/>
       <c r="I106" s="18"/>
     </row>
-    <row r="107" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
         <v>228</v>
       </c>

--- a/lowe/edd/data/OAK$HWS.xlsx
+++ b/lowe/edd/data/OAK$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1709,7 +1709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI107"/>
+  <dimension ref="A1:JJ107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1726,12 +1726,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1759,12 +1759,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2582,11 +2582,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3390,10 +3393,13 @@
         <v>1344400</v>
       </c>
       <c r="JI9" s="11">
-        <v>1342700</v>
+        <v>1345700</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>1350200</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4197,10 +4203,13 @@
         <v>1259200</v>
       </c>
       <c r="JI10" s="11">
-        <v>1270600</v>
+        <v>1273600</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>1281300</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -5006,8 +5015,11 @@
       <c r="JI11" s="11">
         <v>72100</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>68900</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5813,8 +5825,11 @@
       <c r="JI12" s="12">
         <v>5.3999999999999999E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6618,10 +6633,13 @@
         <v>1099500</v>
       </c>
       <c r="JI13" s="11">
-        <v>1100200</v>
+        <v>1103600</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>1115200</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7427,8 +7445,11 @@
       <c r="JI14" s="11">
         <v>1800</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8232,10 +8253,13 @@
         <v>1097600</v>
       </c>
       <c r="JI15" s="11">
-        <v>1098400</v>
+        <v>1101800</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>1113500</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9039,10 +9063,13 @@
         <v>947100</v>
       </c>
       <c r="JI16" s="11">
-        <v>943300</v>
+        <v>946700</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>954800</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9846,10 +9873,13 @@
         <v>173000</v>
       </c>
       <c r="JI17" s="11">
-        <v>172500</v>
+        <v>172700</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>171900</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10653,10 +10683,13 @@
         <v>74200</v>
       </c>
       <c r="JI18" s="11">
-        <v>74300</v>
+        <v>74600</v>
+      </c>
+      <c r="JJ18" s="11">
+        <v>74600</v>
       </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11462,8 +11495,11 @@
       <c r="JI19" s="11">
         <v>200</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12267,10 +12303,13 @@
         <v>74000</v>
       </c>
       <c r="JI20" s="11">
-        <v>74100</v>
+        <v>74400</v>
+      </c>
+      <c r="JJ20" s="11">
+        <v>74400</v>
       </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13076,8 +13115,11 @@
       <c r="JI21" s="11">
         <v>15900</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>16300</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13883,8 +13925,11 @@
       <c r="JI22" s="11">
         <v>10800</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14690,8 +14735,11 @@
       <c r="JI23" s="11">
         <v>5100</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>5100</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15495,10 +15543,13 @@
         <v>7500</v>
       </c>
       <c r="JI24" s="11">
-        <v>7400</v>
+        <v>7500</v>
+      </c>
+      <c r="JJ24" s="11">
+        <v>7600</v>
       </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16302,10 +16353,13 @@
         <v>50400</v>
       </c>
       <c r="JI25" s="11">
-        <v>50800</v>
+        <v>51000</v>
+      </c>
+      <c r="JJ25" s="11">
+        <v>50500</v>
       </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -17109,10 +17163,13 @@
         <v>9600</v>
       </c>
       <c r="JI26" s="11">
-        <v>9500</v>
+        <v>9600</v>
+      </c>
+      <c r="JJ26" s="11">
+        <v>9700</v>
       </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -17918,8 +17975,11 @@
       <c r="JI27" s="11">
         <v>23400</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>23300</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18723,10 +18783,13 @@
         <v>98800</v>
       </c>
       <c r="JI28" s="11">
-        <v>98200</v>
+        <v>98100</v>
+      </c>
+      <c r="JJ28" s="11">
+        <v>97300</v>
       </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19530,10 +19593,13 @@
         <v>68800</v>
       </c>
       <c r="JI29" s="11">
-        <v>68100</v>
+        <v>68000</v>
+      </c>
+      <c r="JJ29" s="11">
+        <v>67300</v>
       </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -20337,10 +20403,13 @@
         <v>20700</v>
       </c>
       <c r="JI30" s="11">
-        <v>20600</v>
+        <v>20700</v>
+      </c>
+      <c r="JJ30" s="11">
+        <v>20800</v>
       </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -21146,8 +21215,11 @@
       <c r="JI31" s="11">
         <v>30100</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>30000</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>34</v>
       </c>
@@ -21951,10 +22023,13 @@
         <v>924600</v>
       </c>
       <c r="JI32" s="11">
-        <v>925900</v>
+        <v>929100</v>
+      </c>
+      <c r="JJ32" s="11">
+        <v>941600</v>
       </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>35</v>
       </c>
@@ -22758,10 +22833,13 @@
         <v>774100</v>
       </c>
       <c r="JI33" s="11">
-        <v>770800</v>
+        <v>774000</v>
+      </c>
+      <c r="JJ33" s="11">
+        <v>782900</v>
       </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>36</v>
       </c>
@@ -23565,10 +23643,13 @@
         <v>186700</v>
       </c>
       <c r="JI34" s="11">
-        <v>184200</v>
+        <v>184500</v>
+      </c>
+      <c r="JJ34" s="11">
+        <v>189100</v>
       </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>37</v>
       </c>
@@ -24372,10 +24453,13 @@
         <v>40600</v>
       </c>
       <c r="JI35" s="11">
-        <v>40000</v>
+        <v>40200</v>
+      </c>
+      <c r="JJ35" s="11">
+        <v>40600</v>
       </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>38</v>
       </c>
@@ -25179,10 +25263,13 @@
         <v>21400</v>
       </c>
       <c r="JI36" s="11">
-        <v>21200</v>
+        <v>21000</v>
+      </c>
+      <c r="JJ36" s="11">
+        <v>21300</v>
       </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -25986,10 +26073,13 @@
         <v>16800</v>
       </c>
       <c r="JI37" s="11">
-        <v>16700</v>
+        <v>16800</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>16900</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>42</v>
       </c>
@@ -26793,10 +26883,13 @@
         <v>98500</v>
       </c>
       <c r="JI38" s="11">
-        <v>97500</v>
+        <v>97600</v>
+      </c>
+      <c r="JJ38" s="11">
+        <v>100900</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>43</v>
       </c>
@@ -27602,8 +27695,11 @@
       <c r="JI39" s="11">
         <v>11500</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>11600</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44</v>
       </c>
@@ -28407,10 +28503,13 @@
         <v>25200</v>
       </c>
       <c r="JI40" s="11">
-        <v>24900</v>
+        <v>25000</v>
+      </c>
+      <c r="JJ40" s="11">
+        <v>25600</v>
       </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>47</v>
       </c>
@@ -29216,8 +29315,11 @@
       <c r="JI41" s="11">
         <v>6200</v>
       </c>
+      <c r="JJ41" s="11">
+        <v>6400</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>48</v>
       </c>
@@ -30023,8 +30125,11 @@
       <c r="JI42" s="11">
         <v>9600</v>
       </c>
+      <c r="JJ42" s="11">
+        <v>9800</v>
+      </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>49</v>
       </c>
@@ -30830,8 +30935,11 @@
       <c r="JI43" s="11">
         <v>3400</v>
       </c>
+      <c r="JJ43" s="11">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>50</v>
       </c>
@@ -31637,8 +31745,11 @@
       <c r="JI44" s="11">
         <v>17400</v>
       </c>
+      <c r="JJ44" s="11">
+        <v>18100</v>
+      </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>53</v>
       </c>
@@ -32444,8 +32555,11 @@
       <c r="JI45" s="11">
         <v>46700</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>47600</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>55</v>
       </c>
@@ -33251,8 +33365,11 @@
       <c r="JI46" s="11">
         <v>40800</v>
       </c>
+      <c r="JJ46" s="11">
+        <v>41500</v>
+      </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>57</v>
       </c>
@@ -34058,8 +34175,11 @@
       <c r="JI47" s="11">
         <v>9100</v>
       </c>
+      <c r="JJ47" s="11">
+        <v>9400</v>
+      </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>58</v>
       </c>
@@ -34865,8 +34985,11 @@
       <c r="JI48" s="11">
         <v>11300</v>
       </c>
+      <c r="JJ48" s="11">
+        <v>11100</v>
+      </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>59</v>
       </c>
@@ -35672,8 +35795,11 @@
       <c r="JI49" s="11">
         <v>8500</v>
       </c>
+      <c r="JJ49" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>62</v>
       </c>
@@ -36477,10 +36603,13 @@
         <v>25300</v>
       </c>
       <c r="JI50" s="11">
-        <v>25400</v>
+        <v>25500</v>
+      </c>
+      <c r="JJ50" s="11">
+        <v>25600</v>
       </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>63</v>
       </c>
@@ -37286,8 +37415,11 @@
       <c r="JI51" s="11">
         <v>7500</v>
       </c>
+      <c r="JJ51" s="11">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>66</v>
       </c>
@@ -38093,8 +38225,11 @@
       <c r="JI52" s="11">
         <v>4200</v>
       </c>
+      <c r="JJ52" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>68</v>
       </c>
@@ -38898,10 +39033,13 @@
         <v>51500</v>
       </c>
       <c r="JI53" s="11">
-        <v>51000</v>
+        <v>51500</v>
+      </c>
+      <c r="JJ53" s="11">
+        <v>51300</v>
       </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>69</v>
       </c>
@@ -39705,10 +39843,13 @@
         <v>34800</v>
       </c>
       <c r="JI54" s="11">
-        <v>34500</v>
+        <v>34900</v>
+      </c>
+      <c r="JJ54" s="11">
+        <v>34600</v>
       </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>70</v>
       </c>
@@ -40512,10 +40653,13 @@
         <v>15000</v>
       </c>
       <c r="JI55" s="11">
-        <v>14900</v>
+        <v>14800</v>
+      </c>
+      <c r="JJ55" s="11">
+        <v>14600</v>
       </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>72</v>
       </c>
@@ -41319,10 +41463,13 @@
         <v>15600</v>
       </c>
       <c r="JI56" s="11">
-        <v>15600</v>
+        <v>15900</v>
+      </c>
+      <c r="JJ56" s="11">
+        <v>16000</v>
       </c>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>73</v>
       </c>
@@ -42126,10 +42273,13 @@
         <v>16700</v>
       </c>
       <c r="JI57" s="11">
-        <v>16500</v>
+        <v>16600</v>
+      </c>
+      <c r="JJ57" s="11">
+        <v>16700</v>
       </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>74</v>
       </c>
@@ -42935,8 +43085,11 @@
       <c r="JI58" s="11">
         <v>13300</v>
       </c>
+      <c r="JJ58" s="11">
+        <v>13500</v>
+      </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>76</v>
       </c>
@@ -43740,10 +43893,13 @@
         <v>193200</v>
       </c>
       <c r="JI59" s="11">
-        <v>194900</v>
+        <v>195600</v>
+      </c>
+      <c r="JJ59" s="11">
+        <v>198300</v>
       </c>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>77</v>
       </c>
@@ -44547,10 +44703,13 @@
         <v>105800</v>
       </c>
       <c r="JI60" s="11">
-        <v>106200</v>
+        <v>106500</v>
+      </c>
+      <c r="JJ60" s="11">
+        <v>107300</v>
       </c>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>78</v>
       </c>
@@ -45356,8 +45515,11 @@
       <c r="JI61" s="11">
         <v>18400</v>
       </c>
+      <c r="JJ61" s="11">
+        <v>18400</v>
+      </c>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>79</v>
       </c>
@@ -46161,10 +46323,13 @@
         <v>23600</v>
       </c>
       <c r="JI62" s="11">
-        <v>23600</v>
+        <v>23900</v>
+      </c>
+      <c r="JJ62" s="11">
+        <v>24100</v>
       </c>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>81</v>
       </c>
@@ -46968,10 +47133,13 @@
         <v>24200</v>
       </c>
       <c r="JI63" s="11">
+        <v>24100</v>
+      </c>
+      <c r="JJ63" s="11">
         <v>24000</v>
       </c>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>82</v>
       </c>
@@ -47775,10 +47943,13 @@
         <v>63200</v>
       </c>
       <c r="JI64" s="11">
-        <v>64700</v>
+        <v>65000</v>
+      </c>
+      <c r="JJ64" s="11">
+        <v>67000</v>
       </c>
     </row>
-    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>83</v>
       </c>
@@ -48582,10 +48753,13 @@
         <v>56500</v>
       </c>
       <c r="JI65" s="11">
-        <v>57800</v>
+        <v>58500</v>
+      </c>
+      <c r="JJ65" s="11">
+        <v>60200</v>
       </c>
     </row>
-    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>84</v>
       </c>
@@ -49389,10 +49563,13 @@
         <v>21900</v>
       </c>
       <c r="JI66" s="11">
-        <v>22400</v>
+        <v>22500</v>
+      </c>
+      <c r="JJ66" s="11">
+        <v>23500</v>
       </c>
     </row>
-    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>85</v>
       </c>
@@ -50196,10 +50373,13 @@
         <v>9300</v>
       </c>
       <c r="JI67" s="11">
-        <v>9200</v>
+        <v>9800</v>
+      </c>
+      <c r="JJ67" s="11">
+        <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>86</v>
       </c>
@@ -51005,8 +51185,11 @@
       <c r="JI68" s="11">
         <v>16600</v>
       </c>
+      <c r="JJ68" s="11">
+        <v>16700</v>
+      </c>
     </row>
-    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -51810,10 +51993,13 @@
         <v>193300</v>
       </c>
       <c r="JI69" s="11">
-        <v>192800</v>
+        <v>193600</v>
+      </c>
+      <c r="JJ69" s="11">
+        <v>195800</v>
       </c>
     </row>
-    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>91</v>
       </c>
@@ -52619,8 +52805,11 @@
       <c r="JI70" s="11">
         <v>19900</v>
       </c>
+      <c r="JJ70" s="11">
+        <v>21200</v>
+      </c>
     </row>
-    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>92</v>
       </c>
@@ -53424,10 +53613,13 @@
         <v>174200</v>
       </c>
       <c r="JI71" s="11">
-        <v>172900</v>
+        <v>173700</v>
+      </c>
+      <c r="JJ71" s="11">
+        <v>174600</v>
       </c>
     </row>
-    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>93</v>
       </c>
@@ -54231,10 +54423,13 @@
         <v>69700</v>
       </c>
       <c r="JI72" s="11">
-        <v>70000</v>
+        <v>70600</v>
+      </c>
+      <c r="JJ72" s="11">
+        <v>70400</v>
       </c>
     </row>
-    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>94</v>
       </c>
@@ -55040,8 +55235,11 @@
       <c r="JI73" s="11">
         <v>22500</v>
       </c>
+      <c r="JJ73" s="11">
+        <v>22400</v>
+      </c>
     </row>
-    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>95</v>
       </c>
@@ -55847,8 +56045,11 @@
       <c r="JI74" s="11">
         <v>20500</v>
       </c>
+      <c r="JJ74" s="11">
+        <v>20400</v>
+      </c>
     </row>
-    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>96</v>
       </c>
@@ -56652,10 +56853,13 @@
         <v>61000</v>
       </c>
       <c r="JI75" s="11">
-        <v>59900</v>
+        <v>60100</v>
+      </c>
+      <c r="JJ75" s="11">
+        <v>61400</v>
       </c>
     </row>
-    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>97</v>
       </c>
@@ -57459,10 +57663,13 @@
         <v>89000</v>
       </c>
       <c r="JI76" s="11">
-        <v>88600</v>
+        <v>89200</v>
+      </c>
+      <c r="JJ76" s="11">
+        <v>89000</v>
       </c>
     </row>
-    <row r="77" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>98</v>
       </c>
@@ -58268,8 +58475,11 @@
       <c r="JI77" s="11">
         <v>11900</v>
       </c>
+      <c r="JJ77" s="11">
+        <v>11800</v>
+      </c>
     </row>
-    <row r="78" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>99</v>
       </c>
@@ -59073,10 +59283,13 @@
         <v>76900</v>
       </c>
       <c r="JI78" s="11">
-        <v>76700</v>
+        <v>77300</v>
+      </c>
+      <c r="JJ78" s="11">
+        <v>77200</v>
       </c>
     </row>
-    <row r="79" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>100</v>
       </c>
@@ -59882,8 +60095,11 @@
       <c r="JI79" s="11">
         <v>6300</v>
       </c>
+      <c r="JJ79" s="11">
+        <v>6200</v>
+      </c>
     </row>
-    <row r="80" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>101</v>
       </c>
@@ -60687,10 +60903,13 @@
         <v>70500</v>
       </c>
       <c r="JI80" s="11">
-        <v>70400</v>
+        <v>71000</v>
+      </c>
+      <c r="JJ80" s="11">
+        <v>71000</v>
       </c>
     </row>
-    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>102</v>
       </c>
@@ -61494,10 +61713,13 @@
         <v>35100</v>
       </c>
       <c r="JI81" s="11">
-        <v>33900</v>
+        <v>34100</v>
+      </c>
+      <c r="JJ81" s="11">
+        <v>33800</v>
       </c>
     </row>
-    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>103</v>
       </c>
@@ -62301,10 +62523,13 @@
         <v>11000</v>
       </c>
       <c r="JI82" s="11">
-        <v>10700</v>
+        <v>10800</v>
+      </c>
+      <c r="JJ82" s="11">
+        <v>10600</v>
       </c>
     </row>
-    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>104</v>
       </c>
@@ -63110,8 +63335,11 @@
       <c r="JI83" s="11">
         <v>8700</v>
       </c>
+      <c r="JJ83" s="11">
+        <v>8800</v>
+      </c>
     </row>
-    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>105</v>
       </c>
@@ -63915,10 +64143,13 @@
         <v>15200</v>
       </c>
       <c r="JI84" s="11">
-        <v>14500</v>
+        <v>14600</v>
+      </c>
+      <c r="JJ84" s="11">
+        <v>14400</v>
       </c>
     </row>
-    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>106</v>
       </c>
@@ -64724,8 +64955,11 @@
       <c r="JI85" s="11">
         <v>155100</v>
       </c>
+      <c r="JJ85" s="11">
+        <v>158700</v>
+      </c>
     </row>
-    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>107</v>
       </c>
@@ -65531,8 +65765,11 @@
       <c r="JI86" s="11">
         <v>13100</v>
       </c>
+      <c r="JJ86" s="11">
+        <v>13200</v>
+      </c>
     </row>
-    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>108</v>
       </c>
@@ -66338,8 +66575,11 @@
       <c r="JI87" s="11">
         <v>400</v>
       </c>
+      <c r="JJ87" s="11">
+        <v>400</v>
+      </c>
     </row>
-    <row r="88" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>109</v>
       </c>
@@ -67145,8 +67385,11 @@
       <c r="JI88" s="11">
         <v>12700</v>
       </c>
+      <c r="JJ88" s="11">
+        <v>12800</v>
+      </c>
     </row>
-    <row r="89" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>110</v>
       </c>
@@ -67952,8 +68195,11 @@
       <c r="JI89" s="11">
         <v>142000</v>
       </c>
+      <c r="JJ89" s="11">
+        <v>145500</v>
+      </c>
     </row>
-    <row r="90" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>111</v>
       </c>
@@ -68759,8 +69005,11 @@
       <c r="JI90" s="11">
         <v>35400</v>
       </c>
+      <c r="JJ90" s="11">
+        <v>36900</v>
+      </c>
     </row>
-    <row r="91" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>112</v>
       </c>
@@ -69566,8 +69815,11 @@
       <c r="JI91" s="11">
         <v>23600</v>
       </c>
+      <c r="JJ91" s="11">
+        <v>25200</v>
+      </c>
     </row>
-    <row r="92" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>113</v>
       </c>
@@ -70373,8 +70625,11 @@
       <c r="JI92" s="11">
         <v>11800</v>
       </c>
+      <c r="JJ92" s="11">
+        <v>11700</v>
+      </c>
     </row>
-    <row r="93" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>114</v>
       </c>
@@ -71180,8 +71435,11 @@
       <c r="JI93" s="11">
         <v>106600</v>
       </c>
+      <c r="JJ93" s="11">
+        <v>108600</v>
+      </c>
     </row>
-    <row r="94" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>115</v>
       </c>
@@ -71987,8 +72245,11 @@
       <c r="JI94" s="11">
         <v>49100</v>
       </c>
+      <c r="JJ94" s="11">
+        <v>51400</v>
+      </c>
     </row>
-    <row r="95" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>116</v>
       </c>
@@ -72794,8 +73055,11 @@
       <c r="JI95" s="11">
         <v>57500</v>
       </c>
+      <c r="JJ95" s="11">
+        <v>57200</v>
+      </c>
     </row>
-    <row r="96" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>117</v>
       </c>
@@ -73599,10 +73863,13 @@
         <v>25500</v>
       </c>
       <c r="JI96" s="11">
-        <v>25400</v>
+        <v>25500</v>
+      </c>
+      <c r="JJ96" s="11">
+        <v>25300</v>
       </c>
     </row>
-    <row r="97" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>118</v>
       </c>
@@ -74406,10 +74673,13 @@
         <v>16700</v>
       </c>
       <c r="JI97" s="11">
-        <v>16100</v>
+        <v>16000</v>
+      </c>
+      <c r="JJ97" s="11">
+        <v>15900</v>
       </c>
     </row>
-    <row r="98" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>119</v>
       </c>
@@ -75215,8 +75485,11 @@
       <c r="JI98" s="11">
         <v>16000</v>
       </c>
+      <c r="JJ98" s="11">
+        <v>16000</v>
+      </c>
     </row>
-    <row r="100" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
         <v>222</v>
       </c>
@@ -75229,7 +75502,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="16"/>
     </row>
-    <row r="101" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>16</v>
       </c>
@@ -75242,7 +75515,7 @@
       <c r="H101" s="14"/>
       <c r="I101" s="18"/>
     </row>
-    <row r="102" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>223</v>
       </c>
@@ -75255,7 +75528,7 @@
       <c r="H102" s="14"/>
       <c r="I102" s="18"/>
     </row>
-    <row r="103" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>224</v>
       </c>
@@ -75268,7 +75541,7 @@
       <c r="H103" s="14"/>
       <c r="I103" s="18"/>
     </row>
-    <row r="104" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>225</v>
       </c>
@@ -75281,7 +75554,7 @@
       <c r="H104" s="14"/>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>226</v>
       </c>
@@ -75294,7 +75567,7 @@
       <c r="H105" s="14"/>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>227</v>
       </c>
@@ -75307,7 +75580,7 @@
       <c r="H106" s="14"/>
       <c r="I106" s="18"/>
     </row>
-    <row r="107" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
         <v>228</v>
       </c>

--- a/lowe/edd/data/OAK$HWS.xlsx
+++ b/lowe/edd/data/OAK$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,13 +545,13 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-721000</t>
   </si>
   <si>
-    <t xml:space="preserve">            Accommodation</t>
+    <t xml:space="preserve">          Accommodation</t>
   </si>
   <si>
     <t>70-722000</t>
@@ -1709,7 +1709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ107"/>
+  <dimension ref="A1:JL107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1726,12 +1726,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1759,12 +1759,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2585,11 +2585,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3396,10 +3402,16 @@
         <v>1345700</v>
       </c>
       <c r="JJ9" s="11">
-        <v>1350200</v>
+        <v>1352200</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>1355400</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>1357700</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4206,10 +4218,16 @@
         <v>1273600</v>
       </c>
       <c r="JJ10" s="11">
-        <v>1281300</v>
+        <v>1283200</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>1296100</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>1302900</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -5018,8 +5036,14 @@
       <c r="JJ11" s="11">
         <v>68900</v>
       </c>
+      <c r="JK11" s="11">
+        <v>59300</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>54800</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5828,8 +5852,14 @@
       <c r="JJ12" s="12">
         <v>5.0999999999999997E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6636,10 +6666,16 @@
         <v>1103600</v>
       </c>
       <c r="JJ13" s="11">
-        <v>1115200</v>
+        <v>1117200</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>1124700</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>1132200</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7448,8 +7484,14 @@
       <c r="JJ14" s="11">
         <v>1700</v>
       </c>
+      <c r="JK14" s="11">
+        <v>1600</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8256,10 +8298,16 @@
         <v>1101800</v>
       </c>
       <c r="JJ15" s="11">
-        <v>1113500</v>
+        <v>1115500</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>1123100</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>1130700</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9066,10 +9114,16 @@
         <v>946700</v>
       </c>
       <c r="JJ16" s="11">
-        <v>954800</v>
+        <v>955700</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>961700</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>969600</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9878,8 +9932,14 @@
       <c r="JJ17" s="11">
         <v>171900</v>
       </c>
+      <c r="JK17" s="11">
+        <v>170900</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>170100</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10688,8 +10748,14 @@
       <c r="JJ18" s="11">
         <v>74600</v>
       </c>
+      <c r="JK18" s="11">
+        <v>73400</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>71700</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11498,8 +11564,14 @@
       <c r="JJ19" s="11">
         <v>200</v>
       </c>
+      <c r="JK19" s="11">
+        <v>200</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12308,8 +12380,14 @@
       <c r="JJ20" s="11">
         <v>74400</v>
       </c>
+      <c r="JK20" s="11">
+        <v>73200</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>71500</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13116,10 +13194,16 @@
         <v>15900</v>
       </c>
       <c r="JJ21" s="11">
+        <v>16400</v>
+      </c>
+      <c r="JK21" s="11">
         <v>16300</v>
       </c>
+      <c r="JL21" s="11">
+        <v>16100</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13928,8 +14012,14 @@
       <c r="JJ22" s="11">
         <v>11200</v>
       </c>
+      <c r="JK22" s="11">
+        <v>11100</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>11000</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14736,10 +14826,16 @@
         <v>5100</v>
       </c>
       <c r="JJ23" s="11">
+        <v>5200</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>5200</v>
+      </c>
+      <c r="JL23" s="11">
         <v>5100</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15548,8 +15644,14 @@
       <c r="JJ24" s="11">
         <v>7600</v>
       </c>
+      <c r="JK24" s="11">
+        <v>7300</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>7200</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16356,10 +16458,16 @@
         <v>51000</v>
       </c>
       <c r="JJ25" s="11">
-        <v>50500</v>
+        <v>50400</v>
+      </c>
+      <c r="JK25" s="11">
+        <v>49600</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>48200</v>
       </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -17168,8 +17276,14 @@
       <c r="JJ26" s="11">
         <v>9700</v>
       </c>
+      <c r="JK26" s="11">
+        <v>9600</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>9400</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -17976,10 +18090,16 @@
         <v>23400</v>
       </c>
       <c r="JJ27" s="11">
-        <v>23300</v>
+        <v>23600</v>
+      </c>
+      <c r="JK27" s="11">
+        <v>23500</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>23200</v>
       </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18788,8 +18908,14 @@
       <c r="JJ28" s="11">
         <v>97300</v>
       </c>
+      <c r="JK28" s="11">
+        <v>97500</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>98400</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19598,8 +19724,14 @@
       <c r="JJ29" s="11">
         <v>67300</v>
       </c>
+      <c r="JK29" s="11">
+        <v>67600</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>68500</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -20406,10 +20538,16 @@
         <v>20700</v>
       </c>
       <c r="JJ30" s="11">
-        <v>20800</v>
+        <v>20500</v>
+      </c>
+      <c r="JK30" s="11">
+        <v>20500</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>20500</v>
       </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -21218,8 +21356,14 @@
       <c r="JJ31" s="11">
         <v>30000</v>
       </c>
+      <c r="JK31" s="11">
+        <v>29900</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>29900</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>34</v>
       </c>
@@ -22026,10 +22170,16 @@
         <v>929100</v>
       </c>
       <c r="JJ32" s="11">
-        <v>941600</v>
+        <v>943600</v>
+      </c>
+      <c r="JK32" s="11">
+        <v>952200</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>960600</v>
       </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>35</v>
       </c>
@@ -22836,10 +22986,16 @@
         <v>774000</v>
       </c>
       <c r="JJ33" s="11">
-        <v>782900</v>
+        <v>783800</v>
+      </c>
+      <c r="JK33" s="11">
+        <v>790800</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>799500</v>
       </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>36</v>
       </c>
@@ -23646,10 +23802,16 @@
         <v>184500</v>
       </c>
       <c r="JJ34" s="11">
-        <v>189100</v>
+        <v>188900</v>
+      </c>
+      <c r="JK34" s="11">
+        <v>193400</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>197500</v>
       </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>37</v>
       </c>
@@ -24456,10 +24618,16 @@
         <v>40200</v>
       </c>
       <c r="JJ35" s="11">
-        <v>40600</v>
+        <v>40700</v>
+      </c>
+      <c r="JK35" s="11">
+        <v>40800</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>41500</v>
       </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>38</v>
       </c>
@@ -25268,8 +25436,14 @@
       <c r="JJ36" s="11">
         <v>21300</v>
       </c>
+      <c r="JK36" s="11">
+        <v>21400</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>21700</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -26076,10 +26250,16 @@
         <v>16800</v>
       </c>
       <c r="JJ37" s="11">
+        <v>16800</v>
+      </c>
+      <c r="JK37" s="11">
         <v>16900</v>
       </c>
+      <c r="JL37" s="11">
+        <v>17000</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>42</v>
       </c>
@@ -26886,10 +27066,16 @@
         <v>97600</v>
       </c>
       <c r="JJ38" s="11">
-        <v>100900</v>
+        <v>100600</v>
+      </c>
+      <c r="JK38" s="11">
+        <v>103300</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>104300</v>
       </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>43</v>
       </c>
@@ -27696,10 +27882,16 @@
         <v>11500</v>
       </c>
       <c r="JJ39" s="11">
+        <v>11500</v>
+      </c>
+      <c r="JK39" s="11">
         <v>11600</v>
       </c>
+      <c r="JL39" s="11">
+        <v>11600</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44</v>
       </c>
@@ -28506,10 +28698,16 @@
         <v>25000</v>
       </c>
       <c r="JJ40" s="11">
-        <v>25600</v>
+        <v>25500</v>
+      </c>
+      <c r="JK40" s="11">
+        <v>26000</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>25400</v>
       </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>47</v>
       </c>
@@ -29316,10 +29514,16 @@
         <v>6200</v>
       </c>
       <c r="JJ41" s="11">
-        <v>6400</v>
+        <v>6300</v>
+      </c>
+      <c r="JK41" s="11">
+        <v>6600</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>6700</v>
       </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>48</v>
       </c>
@@ -30128,8 +30332,14 @@
       <c r="JJ42" s="11">
         <v>9800</v>
       </c>
+      <c r="JK42" s="11">
+        <v>10400</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>10800</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>49</v>
       </c>
@@ -30938,8 +31148,14 @@
       <c r="JJ43" s="11">
         <v>3500</v>
       </c>
+      <c r="JK43" s="11">
+        <v>3700</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>3800</v>
+      </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>50</v>
       </c>
@@ -31748,8 +31964,14 @@
       <c r="JJ44" s="11">
         <v>18100</v>
       </c>
+      <c r="JK44" s="11">
+        <v>19500</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>20100</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>53</v>
       </c>
@@ -32558,8 +32780,14 @@
       <c r="JJ45" s="11">
         <v>47600</v>
       </c>
+      <c r="JK45" s="11">
+        <v>49300</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>51700</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>55</v>
       </c>
@@ -33368,8 +33596,14 @@
       <c r="JJ46" s="11">
         <v>41500</v>
       </c>
+      <c r="JK46" s="11">
+        <v>43200</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>46000</v>
+      </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>57</v>
       </c>
@@ -34176,10 +34410,16 @@
         <v>9100</v>
       </c>
       <c r="JJ47" s="11">
-        <v>9400</v>
+        <v>9100</v>
+      </c>
+      <c r="JK47" s="11">
+        <v>9200</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>9100</v>
       </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>58</v>
       </c>
@@ -34986,10 +35226,16 @@
         <v>11300</v>
       </c>
       <c r="JJ48" s="11">
-        <v>11100</v>
+        <v>11300</v>
+      </c>
+      <c r="JK48" s="11">
+        <v>13000</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>15200</v>
       </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>59</v>
       </c>
@@ -35798,8 +36044,14 @@
       <c r="JJ49" s="11">
         <v>8700</v>
       </c>
+      <c r="JK49" s="11">
+        <v>8800</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>8800</v>
+      </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>62</v>
       </c>
@@ -36608,8 +36860,14 @@
       <c r="JJ50" s="11">
         <v>25600</v>
       </c>
+      <c r="JK50" s="11">
+        <v>25600</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>25800</v>
+      </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>63</v>
       </c>
@@ -37418,8 +37676,14 @@
       <c r="JJ51" s="11">
         <v>7500</v>
       </c>
+      <c r="JK51" s="11">
+        <v>7500</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>66</v>
       </c>
@@ -38228,8 +38492,14 @@
       <c r="JJ52" s="11">
         <v>4300</v>
       </c>
+      <c r="JK52" s="11">
+        <v>4300</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>68</v>
       </c>
@@ -39036,10 +39306,16 @@
         <v>51500</v>
       </c>
       <c r="JJ53" s="11">
-        <v>51300</v>
+        <v>51600</v>
+      </c>
+      <c r="JK53" s="11">
+        <v>52000</v>
+      </c>
+      <c r="JL53" s="11">
+        <v>52400</v>
       </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>69</v>
       </c>
@@ -39846,10 +40122,16 @@
         <v>34900</v>
       </c>
       <c r="JJ54" s="11">
-        <v>34600</v>
+        <v>34900</v>
+      </c>
+      <c r="JK54" s="11">
+        <v>34800</v>
+      </c>
+      <c r="JL54" s="11">
+        <v>35100</v>
       </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>70</v>
       </c>
@@ -40656,10 +40938,16 @@
         <v>14800</v>
       </c>
       <c r="JJ55" s="11">
+        <v>14700</v>
+      </c>
+      <c r="JK55" s="11">
         <v>14600</v>
       </c>
+      <c r="JL55" s="11">
+        <v>14800</v>
+      </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>72</v>
       </c>
@@ -41468,8 +41756,14 @@
       <c r="JJ56" s="11">
         <v>16000</v>
       </c>
+      <c r="JK56" s="11">
+        <v>15900</v>
+      </c>
+      <c r="JL56" s="11">
+        <v>16100</v>
+      </c>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>73</v>
       </c>
@@ -42278,8 +42572,14 @@
       <c r="JJ57" s="11">
         <v>16700</v>
       </c>
+      <c r="JK57" s="11">
+        <v>17200</v>
+      </c>
+      <c r="JL57" s="11">
+        <v>17300</v>
+      </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>74</v>
       </c>
@@ -43086,10 +43386,16 @@
         <v>13300</v>
       </c>
       <c r="JJ58" s="11">
-        <v>13500</v>
+        <v>13600</v>
+      </c>
+      <c r="JK58" s="11">
+        <v>14000</v>
+      </c>
+      <c r="JL58" s="11">
+        <v>14000</v>
       </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>76</v>
       </c>
@@ -43898,8 +44204,14 @@
       <c r="JJ59" s="11">
         <v>198300</v>
       </c>
+      <c r="JK59" s="11">
+        <v>198100</v>
+      </c>
+      <c r="JL59" s="11">
+        <v>198900</v>
+      </c>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>77</v>
       </c>
@@ -44706,10 +45018,16 @@
         <v>106500</v>
       </c>
       <c r="JJ60" s="11">
-        <v>107300</v>
+        <v>107500</v>
+      </c>
+      <c r="JK60" s="11">
+        <v>108900</v>
+      </c>
+      <c r="JL60" s="11">
+        <v>108900</v>
       </c>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>78</v>
       </c>
@@ -45516,10 +45834,16 @@
         <v>18400</v>
       </c>
       <c r="JJ61" s="11">
-        <v>18400</v>
+        <v>18600</v>
+      </c>
+      <c r="JK61" s="11">
+        <v>19500</v>
+      </c>
+      <c r="JL61" s="11">
+        <v>19500</v>
       </c>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>79</v>
       </c>
@@ -46326,10 +46650,16 @@
         <v>23900</v>
       </c>
       <c r="JJ62" s="11">
-        <v>24100</v>
+        <v>24200</v>
+      </c>
+      <c r="JK62" s="11">
+        <v>25200</v>
+      </c>
+      <c r="JL62" s="11">
+        <v>25400</v>
       </c>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>81</v>
       </c>
@@ -47138,8 +47468,14 @@
       <c r="JJ63" s="11">
         <v>24000</v>
       </c>
+      <c r="JK63" s="11">
+        <v>24200</v>
+      </c>
+      <c r="JL63" s="11">
+        <v>24300</v>
+      </c>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>82</v>
       </c>
@@ -47946,10 +48282,16 @@
         <v>65000</v>
       </c>
       <c r="JJ64" s="11">
-        <v>67000</v>
+        <v>66800</v>
+      </c>
+      <c r="JK64" s="11">
+        <v>65000</v>
+      </c>
+      <c r="JL64" s="11">
+        <v>65700</v>
       </c>
     </row>
-    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>83</v>
       </c>
@@ -48756,10 +49098,16 @@
         <v>58500</v>
       </c>
       <c r="JJ65" s="11">
-        <v>60200</v>
+        <v>60000</v>
+      </c>
+      <c r="JK65" s="11">
+        <v>58400</v>
+      </c>
+      <c r="JL65" s="11">
+        <v>59100</v>
       </c>
     </row>
-    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>84</v>
       </c>
@@ -49566,10 +49914,16 @@
         <v>22500</v>
       </c>
       <c r="JJ66" s="11">
-        <v>23500</v>
+        <v>24000</v>
+      </c>
+      <c r="JK66" s="11">
+        <v>23700</v>
+      </c>
+      <c r="JL66" s="11">
+        <v>24200</v>
       </c>
     </row>
-    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>85</v>
       </c>
@@ -50378,8 +50732,14 @@
       <c r="JJ67" s="11">
         <v>10000</v>
       </c>
+      <c r="JK67" s="11">
+        <v>9700</v>
+      </c>
+      <c r="JL67" s="11">
+        <v>9700</v>
+      </c>
     </row>
-    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>86</v>
       </c>
@@ -51188,8 +51548,14 @@
       <c r="JJ68" s="11">
         <v>16700</v>
       </c>
+      <c r="JK68" s="11">
+        <v>16300</v>
+      </c>
+      <c r="JL68" s="11">
+        <v>16200</v>
+      </c>
     </row>
-    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -51996,10 +52362,16 @@
         <v>193600</v>
       </c>
       <c r="JJ69" s="11">
-        <v>195800</v>
+        <v>196000</v>
+      </c>
+      <c r="JK69" s="11">
+        <v>198600</v>
+      </c>
+      <c r="JL69" s="11">
+        <v>200300</v>
       </c>
     </row>
-    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>91</v>
       </c>
@@ -52808,8 +53180,14 @@
       <c r="JJ70" s="11">
         <v>21200</v>
       </c>
+      <c r="JK70" s="11">
+        <v>21500</v>
+      </c>
+      <c r="JL70" s="11">
+        <v>21300</v>
+      </c>
     </row>
-    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>92</v>
       </c>
@@ -53616,10 +53994,16 @@
         <v>173700</v>
       </c>
       <c r="JJ71" s="11">
-        <v>174600</v>
+        <v>174800</v>
+      </c>
+      <c r="JK71" s="11">
+        <v>177100</v>
+      </c>
+      <c r="JL71" s="11">
+        <v>179000</v>
       </c>
     </row>
-    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>93</v>
       </c>
@@ -54426,10 +54810,16 @@
         <v>70600</v>
       </c>
       <c r="JJ72" s="11">
-        <v>70400</v>
+        <v>71000</v>
+      </c>
+      <c r="JK72" s="11">
+        <v>72400</v>
+      </c>
+      <c r="JL72" s="11">
+        <v>73000</v>
       </c>
     </row>
-    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>94</v>
       </c>
@@ -55236,10 +55626,16 @@
         <v>22500</v>
       </c>
       <c r="JJ73" s="11">
-        <v>22400</v>
+        <v>22600</v>
+      </c>
+      <c r="JK73" s="11">
+        <v>23000</v>
+      </c>
+      <c r="JL73" s="11">
+        <v>23400</v>
       </c>
     </row>
-    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>95</v>
       </c>
@@ -56046,10 +56442,16 @@
         <v>20500</v>
       </c>
       <c r="JJ74" s="11">
-        <v>20400</v>
+        <v>20200</v>
+      </c>
+      <c r="JK74" s="11">
+        <v>20200</v>
+      </c>
+      <c r="JL74" s="11">
+        <v>19900</v>
       </c>
     </row>
-    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>96</v>
       </c>
@@ -56856,10 +57258,16 @@
         <v>60100</v>
       </c>
       <c r="JJ75" s="11">
-        <v>61400</v>
+        <v>61000</v>
+      </c>
+      <c r="JK75" s="11">
+        <v>61500</v>
+      </c>
+      <c r="JL75" s="11">
+        <v>62700</v>
       </c>
     </row>
-    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>97</v>
       </c>
@@ -57666,10 +58074,16 @@
         <v>89200</v>
       </c>
       <c r="JJ76" s="11">
-        <v>89000</v>
+        <v>89200</v>
+      </c>
+      <c r="JK76" s="11">
+        <v>88900</v>
+      </c>
+      <c r="JL76" s="11">
+        <v>89900</v>
       </c>
     </row>
-    <row r="77" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>98</v>
       </c>
@@ -58478,8 +58892,14 @@
       <c r="JJ77" s="11">
         <v>11800</v>
       </c>
+      <c r="JK77" s="11">
+        <v>11600</v>
+      </c>
+      <c r="JL77" s="11">
+        <v>11700</v>
+      </c>
     </row>
-    <row r="78" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>99</v>
       </c>
@@ -59286,10 +59706,16 @@
         <v>77300</v>
       </c>
       <c r="JJ78" s="11">
-        <v>77200</v>
+        <v>77400</v>
+      </c>
+      <c r="JK78" s="11">
+        <v>77300</v>
+      </c>
+      <c r="JL78" s="11">
+        <v>78200</v>
       </c>
     </row>
-    <row r="79" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>100</v>
       </c>
@@ -60098,8 +60524,14 @@
       <c r="JJ79" s="11">
         <v>6200</v>
       </c>
+      <c r="JK79" s="11">
+        <v>6100</v>
+      </c>
+      <c r="JL79" s="11">
+        <v>6100</v>
+      </c>
     </row>
-    <row r="80" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>101</v>
       </c>
@@ -60906,10 +61338,16 @@
         <v>71000</v>
       </c>
       <c r="JJ80" s="11">
-        <v>71000</v>
+        <v>71200</v>
+      </c>
+      <c r="JK80" s="11">
+        <v>71200</v>
+      </c>
+      <c r="JL80" s="11">
+        <v>72100</v>
       </c>
     </row>
-    <row r="81" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>102</v>
       </c>
@@ -61716,10 +62154,16 @@
         <v>34100</v>
       </c>
       <c r="JJ81" s="11">
-        <v>33800</v>
+        <v>34200</v>
+      </c>
+      <c r="JK81" s="11">
+        <v>34200</v>
+      </c>
+      <c r="JL81" s="11">
+        <v>34700</v>
       </c>
     </row>
-    <row r="82" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>103</v>
       </c>
@@ -62526,10 +62970,16 @@
         <v>10800</v>
       </c>
       <c r="JJ82" s="11">
-        <v>10600</v>
+        <v>10800</v>
+      </c>
+      <c r="JK82" s="11">
+        <v>10900</v>
+      </c>
+      <c r="JL82" s="11">
+        <v>10900</v>
       </c>
     </row>
-    <row r="83" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>104</v>
       </c>
@@ -63338,8 +63788,14 @@
       <c r="JJ83" s="11">
         <v>8800</v>
       </c>
+      <c r="JK83" s="11">
+        <v>8700</v>
+      </c>
+      <c r="JL83" s="11">
+        <v>8900</v>
+      </c>
     </row>
-    <row r="84" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>105</v>
       </c>
@@ -64146,10 +64602,16 @@
         <v>14600</v>
       </c>
       <c r="JJ84" s="11">
-        <v>14400</v>
+        <v>14600</v>
+      </c>
+      <c r="JK84" s="11">
+        <v>14600</v>
+      </c>
+      <c r="JL84" s="11">
+        <v>14900</v>
       </c>
     </row>
-    <row r="85" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>106</v>
       </c>
@@ -64956,10 +65418,16 @@
         <v>155100</v>
       </c>
       <c r="JJ85" s="11">
-        <v>158700</v>
+        <v>159800</v>
+      </c>
+      <c r="JK85" s="11">
+        <v>161400</v>
+      </c>
+      <c r="JL85" s="11">
+        <v>161100</v>
       </c>
     </row>
-    <row r="86" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>107</v>
       </c>
@@ -65768,8 +66236,14 @@
       <c r="JJ86" s="11">
         <v>13200</v>
       </c>
+      <c r="JK86" s="11">
+        <v>13100</v>
+      </c>
+      <c r="JL86" s="11">
+        <v>13200</v>
+      </c>
     </row>
-    <row r="87" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>108</v>
       </c>
@@ -66578,8 +67052,14 @@
       <c r="JJ87" s="11">
         <v>400</v>
       </c>
+      <c r="JK87" s="11">
+        <v>400</v>
+      </c>
+      <c r="JL87" s="11">
+        <v>400</v>
+      </c>
     </row>
-    <row r="88" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>109</v>
       </c>
@@ -67388,8 +67868,14 @@
       <c r="JJ88" s="11">
         <v>12800</v>
       </c>
+      <c r="JK88" s="11">
+        <v>12700</v>
+      </c>
+      <c r="JL88" s="11">
+        <v>12800</v>
+      </c>
     </row>
-    <row r="89" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>110</v>
       </c>
@@ -68196,10 +68682,16 @@
         <v>142000</v>
       </c>
       <c r="JJ89" s="11">
-        <v>145500</v>
+        <v>146600</v>
+      </c>
+      <c r="JK89" s="11">
+        <v>148300</v>
+      </c>
+      <c r="JL89" s="11">
+        <v>147900</v>
       </c>
     </row>
-    <row r="90" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>111</v>
       </c>
@@ -69006,10 +69498,16 @@
         <v>35400</v>
       </c>
       <c r="JJ90" s="11">
-        <v>36900</v>
+        <v>37600</v>
+      </c>
+      <c r="JK90" s="11">
+        <v>38700</v>
+      </c>
+      <c r="JL90" s="11">
+        <v>39200</v>
       </c>
     </row>
-    <row r="91" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>112</v>
       </c>
@@ -69816,10 +70314,16 @@
         <v>23600</v>
       </c>
       <c r="JJ91" s="11">
-        <v>25200</v>
+        <v>25800</v>
+      </c>
+      <c r="JK91" s="11">
+        <v>26900</v>
+      </c>
+      <c r="JL91" s="11">
+        <v>27400</v>
       </c>
     </row>
-    <row r="92" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>113</v>
       </c>
@@ -70626,10 +71130,16 @@
         <v>11800</v>
       </c>
       <c r="JJ92" s="11">
-        <v>11700</v>
+        <v>11800</v>
+      </c>
+      <c r="JK92" s="11">
+        <v>11800</v>
+      </c>
+      <c r="JL92" s="11">
+        <v>11800</v>
       </c>
     </row>
-    <row r="93" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>114</v>
       </c>
@@ -71436,10 +71946,16 @@
         <v>106600</v>
       </c>
       <c r="JJ93" s="11">
-        <v>108600</v>
+        <v>109000</v>
+      </c>
+      <c r="JK93" s="11">
+        <v>109600</v>
+      </c>
+      <c r="JL93" s="11">
+        <v>108700</v>
       </c>
     </row>
-    <row r="94" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>115</v>
       </c>
@@ -72246,10 +72762,16 @@
         <v>49100</v>
       </c>
       <c r="JJ94" s="11">
-        <v>51400</v>
+        <v>51900</v>
+      </c>
+      <c r="JK94" s="11">
+        <v>52400</v>
+      </c>
+      <c r="JL94" s="11">
+        <v>51500</v>
       </c>
     </row>
-    <row r="95" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>116</v>
       </c>
@@ -73056,10 +73578,16 @@
         <v>57500</v>
       </c>
       <c r="JJ95" s="11">
+        <v>57100</v>
+      </c>
+      <c r="JK95" s="11">
         <v>57200</v>
       </c>
+      <c r="JL95" s="11">
+        <v>57200</v>
+      </c>
     </row>
-    <row r="96" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>117</v>
       </c>
@@ -73866,10 +74394,16 @@
         <v>25500</v>
       </c>
       <c r="JJ96" s="11">
+        <v>25400</v>
+      </c>
+      <c r="JK96" s="11">
+        <v>25400</v>
+      </c>
+      <c r="JL96" s="11">
         <v>25300</v>
       </c>
     </row>
-    <row r="97" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>118</v>
       </c>
@@ -74678,8 +75212,14 @@
       <c r="JJ97" s="11">
         <v>15900</v>
       </c>
+      <c r="JK97" s="11">
+        <v>15900</v>
+      </c>
+      <c r="JL97" s="11">
+        <v>16000</v>
+      </c>
     </row>
-    <row r="98" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>119</v>
       </c>
@@ -75486,10 +76026,16 @@
         <v>16000</v>
       </c>
       <c r="JJ98" s="11">
-        <v>16000</v>
+        <v>15800</v>
+      </c>
+      <c r="JK98" s="11">
+        <v>15900</v>
+      </c>
+      <c r="JL98" s="11">
+        <v>15900</v>
       </c>
     </row>
-    <row r="100" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
         <v>222</v>
       </c>
@@ -75502,7 +76048,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="16"/>
     </row>
-    <row r="101" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>16</v>
       </c>
@@ -75515,7 +76061,7 @@
       <c r="H101" s="14"/>
       <c r="I101" s="18"/>
     </row>
-    <row r="102" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>223</v>
       </c>
@@ -75528,7 +76074,7 @@
       <c r="H102" s="14"/>
       <c r="I102" s="18"/>
     </row>
-    <row r="103" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>224</v>
       </c>
@@ -75541,7 +76087,7 @@
       <c r="H103" s="14"/>
       <c r="I103" s="18"/>
     </row>
-    <row r="104" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>225</v>
       </c>
@@ -75554,7 +76100,7 @@
       <c r="H104" s="14"/>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>226</v>
       </c>
@@ -75567,7 +76113,7 @@
       <c r="H105" s="14"/>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>227</v>
       </c>
@@ -75580,7 +76126,7 @@
       <c r="H106" s="14"/>
       <c r="I106" s="18"/>
     </row>
-    <row r="107" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
         <v>228</v>
       </c>
